--- a/data/req_archive.xlsx
+++ b/data/req_archive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,42 +443,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>REQ0683527</t>
+          <t>REQ0717399</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>REQ0683441</t>
+          <t>REQ0715319</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>REQ0683303</t>
+          <t>REQ0714742</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>REQ0683077</t>
+          <t>REQ0714563</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>REQ0679856</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>REQ0561303</t>
+          <t>REQ0714396</t>
         </is>
       </c>
     </row>

--- a/data/req_archive.xlsx
+++ b/data/req_archive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,35 +443,182 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>REQ0717399</t>
+          <t>REQ0782445</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>REQ0715319</t>
+          <t>REQ0782366</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>REQ0714742</t>
+          <t>REQ0782025</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>REQ0714563</t>
+          <t>REQ0781660</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>REQ0714396</t>
+          <t>REQ0781412</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>REQ0781385</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>REQ0780724</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>REQ0780718</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>REQ0780623</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>REQ0777639</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>REQ0770139</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>REQ0767628</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>REQ0767543</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>REQ0767475</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>REQ0767407</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>REQ0767333</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>REQ0767300</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>REQ0767209</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>REQ0767158</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>REQ0759241</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>REQ0759224</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>REQ0759215</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>REQ0759187</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>REQ0759135</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>REQ0758818</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>REQ0753679</t>
         </is>
       </c>
     </row>

--- a/data/req_archive.xlsx
+++ b/data/req_archive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,180 +443,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>REQ0782445</t>
+          <t>REQ0784315</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>REQ0782366</t>
+          <t>REQ0783970</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>REQ0782025</t>
+          <t>REQ0783927</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>REQ0781660</t>
+          <t>REQ0782025</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>REQ0781412</t>
+          <t>REQ0781660</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>REQ0781385</t>
+          <t>REQ0781412</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>REQ0780724</t>
+          <t>REQ0781385</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>REQ0780718</t>
+          <t>REQ0770139</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>REQ0780623</t>
+          <t>REQ0767158</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>REQ0777639</t>
+          <t>REQ0759241</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REQ0770139</t>
+          <t>REQ0759224</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>REQ0767628</t>
+          <t>REQ0759215</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>REQ0767543</t>
+          <t>REQ0759187</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>REQ0767475</t>
+          <t>REQ0759135</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>REQ0767407</t>
+          <t>REQ0758818</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
-        <is>
-          <t>REQ0767333</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>REQ0767300</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>REQ0767209</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>REQ0767158</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>REQ0759241</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>REQ0759224</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>REQ0759215</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>REQ0759187</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>REQ0759135</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>REQ0758818</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
         <is>
           <t>REQ0753679</t>
         </is>

--- a/data/req_archive.xlsx
+++ b/data/req_archive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,77 +443,77 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>REQ0784315</t>
+          <t>REQ0818900</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>REQ0783970</t>
+          <t>REQ0818869</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>REQ0783927</t>
+          <t>REQ0818863</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>REQ0782025</t>
+          <t>REQ0818772</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>REQ0781660</t>
+          <t>REQ0812415</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>REQ0781412</t>
+          <t>REQ0808947</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>REQ0781385</t>
+          <t>REQ0795933</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>REQ0770139</t>
+          <t>REQ0781412</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>REQ0767158</t>
+          <t>REQ0781385</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>REQ0759241</t>
+          <t>REQ0767158</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REQ0759224</t>
+          <t>REQ0759241</t>
         </is>
       </c>
     </row>
@@ -542,13 +542,6 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>REQ0758818</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>REQ0753679</t>
         </is>
       </c>
     </row>

--- a/data/req_archive.xlsx
+++ b/data/req_archive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,103 +443,166 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>REQ0818900</t>
+          <t>REQ0843328</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>REQ0818869</t>
+          <t>REQ0843281</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>REQ0818863</t>
+          <t>REQ0842169</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>REQ0818772</t>
+          <t>REQ0842102</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>REQ0812415</t>
+          <t>REQ0839701</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>REQ0808947</t>
+          <t>REQ0839645</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>REQ0795933</t>
+          <t>REQ0839543</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>REQ0781412</t>
+          <t>REQ0839542</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>REQ0781385</t>
+          <t>REQ0839389</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>REQ0767158</t>
+          <t>REQ0838101</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REQ0759241</t>
+          <t>REQ0837133</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>REQ0759215</t>
+          <t>REQ0837132</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>REQ0759187</t>
+          <t>REQ0837127</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>REQ0759135</t>
+          <t>REQ0836152</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
+        <is>
+          <t>REQ0831035</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>REQ0831031</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>REQ0795933</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>REQ0781412</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>REQ0781385</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>REQ0759241</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>REQ0759215</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>REQ0759187</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>REQ0759135</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>REQ0758818</t>
         </is>
